--- a/Past Exam Solutions/2024/Q4.xlsx
+++ b/Past Exam Solutions/2024/Q4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\cg\Past Exam Solutions\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS0036625\Desktop\CG25\Past Exam Solutions\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91312666-8911-4F64-B4F6-7C30337ACC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED6453-F252-4A65-BEBA-62C4ABEC964B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{236022D5-7CF6-4152-8B97-215160403C83}"/>
   </bookViews>
@@ -171,10 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,9 +469,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +509,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +615,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,7 +757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDDB093-C019-4753-A12A-0C2C8DF3B37A}">
   <dimension ref="A9:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:E65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +783,7 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -788,7 +794,7 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
